--- a/biology/Médecine/CIM-10_Chapitre_18___Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs/CIM-10_Chapitre_18___Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_18___Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs/CIM-10_Chapitre_18___Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre XVIII de la classification internationale des maladies, CIM-10[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre XVIII de la classification internationale des maladies, CIM-10.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>R00-R09 - Symptômes et signes relatifs aux appareils circulatoire et respiratoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(R00) Anomalies du rythme cardiaque
 (R00.0) Tachycardie, sans précision
@@ -564,7 +578,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -582,7 +596,9 @@
           <t>R10-R19 - Symptômes et signes relatifs à l'appareil digestif et à l'abdomen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(R10) Douleur abdominale et pelvienne
 (R10.0) Syndrome abdominal aigu
@@ -619,7 +635,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -637,7 +653,9 @@
           <t>R20-R23 - Symptômes et signes relatifs à la peau et au tissu cellulaire sous-cutané</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(R20) Troubles de la sensibilité cutanée
 (R20.0) Anesthésie cutanée
@@ -670,7 +688,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -688,7 +706,9 @@
           <t>R25-R29 - Symptômes et signes relatifs aux systèmes nerveux et ostéo-musculaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(R25) Mouvements involontaires anormaux
 (R25.0) Mouvements anormaux de la tête
@@ -721,7 +741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -739,7 +759,9 @@
           <t>R30-R39 - Symptômes et signes relatifs à l'appareil urinaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(R30) Douleur à la miction
 (R30.0) Dysurie (Strangurie)
@@ -765,7 +787,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -783,7 +805,9 @@
           <t>R40-R46 - Symptômes et signes relatifs à la connaissance, la perception, l'humeur et le comportement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(R40) Somnolence, stupeur et coma
 (R40.0) Somnolence
@@ -836,7 +860,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -854,7 +878,9 @@
           <t>R47-R49 - Symptômes et signes relatifs au langage et à la voix</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(R47) Troubles du langage, non classés ailleurs
 (R47.0) Dysphasie et aphasie
@@ -879,7 +905,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -897,7 +923,9 @@
           <t>R50-R69 - Symptômes et signes généraux</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(R50) Fièvre d'origine autre et inconnue
 (R50.2) Fièvre due à des médicaments
@@ -959,7 +987,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -977,7 +1005,9 @@
           <t>R70-R79 - Résultats anormaux de l'examen du sang, sans diagnostic</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(R70) Accélération de la vitesse de sédimentation et anomalies de la viscosité plasmatique
 (R70.0) Accélération de la vitesse de sédimentation
@@ -1027,7 +1057,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1045,7 +1075,9 @@
           <t>R80-R82 - Résultats anormaux de l'examen des urines, sans diagnostic</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>(R80) Protéinurie isolée (Albuminurie, Protéinurie)
 (R81) Glycosurie
@@ -1069,7 +1101,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1087,7 +1119,9 @@
           <t>R83-R89 - Résultats anormaux de l'examen d'autres liquides, substances et tissus, sans diagnostic</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>(R83) Résultats anormaux de l'examen du liquide céphalo-rachidien
 (R84) Résultats anormaux de prélèvements effectués sur l'appareil respiratoire et le thorax
@@ -1104,7 +1138,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1122,7 +1156,9 @@
           <t>R90-R94 - Résultats anormaux d'imagerie diagnostique et d'épreuves fonctionnelles, sans diagnostic</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>(R90) Résultats anormaux d'imagerie diagnostique du système nerveux central
 (R90.0) Lésion intracrânienne
@@ -1158,7 +1194,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_18_:_Sympt%C3%B4mes,_signes_et_r%C3%A9sultats_anormaux_d%27examens_cliniques_et_de_laboratoire,_non_class%C3%A9s_ailleurs</t>
+          <t>CIM-10_Chapitre_18_:_Symptômes,_signes_et_résultats_anormaux_d'examens_cliniques_et_de_laboratoire,_non_classés_ailleurs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1176,7 +1212,9 @@
           <t>R95-R99 - Causes de mortalité mal définies et inconnues</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>(R95) Syndrome de la mort subite du nourrisson
 (R96) Autre mort subite de cause inconnue
